--- a/data/trans_bre/CoPsoQ_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/CoPsoQ_R-Edad-trans_bre.xlsx
@@ -618,7 +618,7 @@
         <v>-4.240460957396833</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>-8.624211774709057</v>
+        <v>-8.624211774709062</v>
       </c>
       <c r="F4" s="6" t="n">
         <v>-0.1511449256128984</v>
@@ -627,7 +627,7 @@
         <v>-0.1599166778486071</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>-0.2446374324535318</v>
+        <v>-0.2446374324535319</v>
       </c>
     </row>
     <row r="5">
@@ -638,22 +638,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-18.20594696438708</v>
+        <v>-18.42722283583748</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-18.00641749582928</v>
+        <v>-16.6164932888473</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-47.68155032838023</v>
+        <v>-45.0142799944218</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>-0.4744938910352533</v>
+        <v>-0.4772626598979713</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.5206065443030874</v>
+        <v>-0.5166169298495892</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.8635500865753575</v>
+        <v>-0.8428757046323687</v>
       </c>
     </row>
     <row r="6">
@@ -664,22 +664,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>9.835682372357182</v>
+        <v>9.810752920869046</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>8.703045745826946</v>
+        <v>9.012082457110763</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>27.50091150018488</v>
+        <v>23.12482376353196</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>0.4746674807463858</v>
+        <v>0.4350030176152245</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.5422131643787739</v>
+        <v>0.4533203382416428</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>2.544111605921847</v>
+        <v>2.015918340993429</v>
       </c>
     </row>
     <row r="7">
@@ -700,7 +700,7 @@
         <v>1.549287448814976</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>6.53794458168166</v>
+        <v>6.537944581681657</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>-0.1375581199385443</v>
@@ -720,22 +720,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-10.6153812729588</v>
+        <v>-9.930820525731848</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-5.16251160183973</v>
+        <v>-4.402751899398223</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-7.570245614935825</v>
+        <v>-9.321462338518003</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.3841134467908803</v>
+        <v>-0.3507877604131863</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.2298436989402755</v>
+        <v>-0.1955673994184687</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.2501664106894689</v>
+        <v>-0.2976385800325281</v>
       </c>
     </row>
     <row r="9">
@@ -746,22 +746,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>3.279618234581271</v>
+        <v>3.489434386586091</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>8.275455160656794</v>
+        <v>9.033710302997013</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>22.09466542290935</v>
+        <v>21.72099300976108</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.156427356382118</v>
+        <v>0.1799901827657989</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.4826488337136399</v>
+        <v>0.5388781851370372</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.400089870249989</v>
+        <v>1.306582195369708</v>
       </c>
     </row>
     <row r="10">
@@ -782,7 +782,7 @@
         <v>0.9929046597457802</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>-4.792680087352608</v>
+        <v>-4.792680087352591</v>
       </c>
       <c r="F10" s="6" t="n">
         <v>-0.02739417960561089</v>
@@ -791,7 +791,7 @@
         <v>0.04442022806932061</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>-0.1510357432523355</v>
+        <v>-0.151035743252335</v>
       </c>
     </row>
     <row r="11">
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-6.758026176126056</v>
+        <v>-7.215937013087085</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-4.8247018737327</v>
+        <v>-5.255999775813612</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-15.50446951664723</v>
+        <v>-16.78590580155328</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>-0.268793628699514</v>
+        <v>-0.2905972330479834</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.2012140224762727</v>
+        <v>-0.2112516195789659</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.4064577441125498</v>
+        <v>-0.445322813500434</v>
       </c>
     </row>
     <row r="12">
@@ -828,22 +828,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>6.763976740437901</v>
+        <v>6.496105012135914</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>7.076423750266264</v>
+        <v>6.907220829391438</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>7.225509298784267</v>
+        <v>7.286804120537145</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>0.3456645360794798</v>
+        <v>0.3089055214899352</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.3489225616961507</v>
+        <v>0.3477417772718697</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2968055949287368</v>
+        <v>0.2842208737228685</v>
       </c>
     </row>
     <row r="13">
@@ -864,7 +864,7 @@
         <v>-1.013534954041423</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>-8.51590702283559</v>
+        <v>-8.515907022835584</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.4798017815643573</v>
@@ -873,7 +873,7 @@
         <v>-0.04293013228154175</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>-0.195157127954538</v>
+        <v>-0.1951571279545379</v>
       </c>
     </row>
     <row r="14">
@@ -884,22 +884,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>1.537120843788696</v>
+        <v>0.9678724226398823</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-8.260232340281901</v>
+        <v>-8.064567307847872</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-20.22784433249652</v>
+        <v>-19.502767996763</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.06182002989106378</v>
+        <v>0.03841329290494842</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.309258494434556</v>
+        <v>-0.3015693106953417</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.4197944755009837</v>
+        <v>-0.3798815819658252</v>
       </c>
     </row>
     <row r="15">
@@ -910,22 +910,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>17.02435689534945</v>
+        <v>16.61898310447417</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>6.282587484656682</v>
+        <v>6.283574038864768</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>1.867010787779091</v>
+        <v>2.396870824406447</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>1.068882172883547</v>
+        <v>1.040090425065208</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.3065307004958019</v>
+        <v>0.301032837382004</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.04698350648288316</v>
+        <v>0.07546618545976325</v>
       </c>
     </row>
     <row r="16">
@@ -946,7 +946,7 @@
         <v>4.389410853429129</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>-3.73913929217419</v>
+        <v>-3.739139292174204</v>
       </c>
       <c r="F16" s="6" t="n">
         <v>0.04616399743634474</v>
@@ -955,7 +955,7 @@
         <v>0.187031304688768</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>-0.1440132002627447</v>
+        <v>-0.1440132002627452</v>
       </c>
     </row>
     <row r="17">
@@ -966,22 +966,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-9.441240041831424</v>
+        <v>-10.65468092500356</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-6.811497031780604</v>
+        <v>-6.775498465749993</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-17.5837013732073</v>
+        <v>-19.48268991978818</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>-0.3846084078917817</v>
+        <v>-0.4423666721296307</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.2551135071180339</v>
+        <v>-0.2530471080354705</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.5453604382797655</v>
+        <v>-0.5865355290012082</v>
       </c>
     </row>
     <row r="18">
@@ -992,22 +992,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>14.35125612439904</v>
+        <v>14.02384864768426</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>15.77028100038963</v>
+        <v>16.03159740050987</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>10.98676942642848</v>
+        <v>9.987428970361121</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>0.8891424590402865</v>
+        <v>0.8180639727261825</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.8345444359193731</v>
+        <v>0.8278426209387455</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.5648028662009609</v>
+        <v>0.5894015887077469</v>
       </c>
     </row>
     <row r="19">
@@ -1028,7 +1028,7 @@
         <v>0.5866718116070757</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>-2.791178039239584</v>
+        <v>-2.791178039239595</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>0.04743113211644422</v>
@@ -1037,7 +1037,7 @@
         <v>0.02615018672846372</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>-0.08538200796672671</v>
+        <v>-0.08538200796672704</v>
       </c>
     </row>
     <row r="20">
@@ -1048,22 +1048,22 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-2.666244653830514</v>
+        <v>-2.610362693168111</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-2.903244985734273</v>
+        <v>-2.722900070936374</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-9.633445857815909</v>
+        <v>-9.922755122359867</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.1106091249681924</v>
+        <v>-0.1080472432253105</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.1197775862730359</v>
+        <v>-0.1147954721535139</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.2571017038856994</v>
+        <v>-0.267176556590878</v>
       </c>
     </row>
     <row r="21">
@@ -1074,22 +1074,22 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>4.824917833565541</v>
+        <v>4.455446203866478</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>4.286133320008564</v>
+        <v>4.214181192366294</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>3.898316630022146</v>
+        <v>3.711613296989409</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.2333998858409406</v>
+        <v>0.2090568434267266</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.209676175417286</v>
+        <v>0.1977592764569945</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1357947543625175</v>
+        <v>0.1304781820171173</v>
       </c>
     </row>
     <row r="22">
